--- a/data/trans_orig/P32E$amigos_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P32E$amigos_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>10456</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4584</v>
+        <v>4608</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19115</v>
+        <v>19189</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2989174142450792</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1310482730045346</v>
+        <v>0.1317474779987956</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5464643890262286</v>
+        <v>0.548586677930475</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5085</v>
+        <v>5788</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1781564188098864</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4582506780570453</v>
+        <v>0.5216324736089593</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -783,19 +783,19 @@
         <v>12433</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6157</v>
+        <v>6446</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22213</v>
+        <v>22814</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2698341516803128</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1336259793502114</v>
+        <v>0.1398919643147938</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4821038968706848</v>
+        <v>0.4951428371296525</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>27859</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21666</v>
+        <v>22323</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31869</v>
+        <v>31667</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.796445794370704</v>
+        <v>0.7964457943707038</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6194082067917824</v>
+        <v>0.6381777594013062</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9111028020890227</v>
+        <v>0.9053044862574603</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -833,19 +833,19 @@
         <v>7141</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3807</v>
+        <v>3427</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9699</v>
+        <v>9579</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6435253308314686</v>
+        <v>0.6435253308314685</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3431316144417081</v>
+        <v>0.3088385515365036</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8741073102112784</v>
+        <v>0.8632777684705645</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -854,19 +854,19 @@
         <v>34999</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27994</v>
+        <v>28009</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39766</v>
+        <v>40080</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7596174627011117</v>
+        <v>0.7596174627011116</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.607583730704962</v>
+        <v>0.6079068389361099</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8630740721814633</v>
+        <v>0.8698859166675788</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>7028</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2238</v>
+        <v>2681</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12773</v>
+        <v>13271</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.200919379897803</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06397610582186886</v>
+        <v>0.07663704068886905</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3651540137243613</v>
+        <v>0.3794129402442622</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -904,19 +904,19 @@
         <v>3343</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6866</v>
+        <v>6870</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3012948775097005</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08735583325024822</v>
+        <v>0.08749713382749728</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6188242945012056</v>
+        <v>0.6191187157683564</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -925,19 +925,19 @@
         <v>10371</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5547</v>
+        <v>5583</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17311</v>
+        <v>16989</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2250931368430457</v>
+        <v>0.2250931368430456</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1203926815563955</v>
+        <v>0.1211816136691359</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3757225721608717</v>
+        <v>0.3687341820523037</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>12749</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6905</v>
+        <v>7175</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19153</v>
+        <v>19077</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3644628517140315</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1974081018859307</v>
+        <v>0.2051211146278795</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5475602667807851</v>
+        <v>0.5453911211577143</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -975,19 +975,19 @@
         <v>2346</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5852</v>
+        <v>5733</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.211466347807035</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05825655230757411</v>
+        <v>0.05778176914598057</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5274325030089039</v>
+        <v>0.5166314832342594</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -996,19 +996,19 @@
         <v>15095</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8910</v>
+        <v>9497</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21555</v>
+        <v>22448</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3276162069958168</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1933848648802498</v>
+        <v>0.2061301889270152</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4678338877118457</v>
+        <v>0.4871991213195074</v>
       </c>
     </row>
     <row r="8">
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5008</v>
+        <v>4730</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03018654307594361</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1431586815793089</v>
+        <v>0.1352173948308038</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1049,16 +1049,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3960</v>
+        <v>4676</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.0850310564697085</v>
+        <v>0.08503105646970849</v>
       </c>
       <c r="O8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3569034963065491</v>
+        <v>0.4214145170990272</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6971</v>
+        <v>6445</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04339492528180008</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1512888076000294</v>
+        <v>0.1398901478878103</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>10497</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4732</v>
+        <v>5018</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>19086</v>
+        <v>19789</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2701959050546358</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.121792307557596</v>
+        <v>0.1291783119205467</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4912844703259556</v>
+        <v>0.5093730739403654</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1121,19 +1121,19 @@
         <v>8123</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3973</v>
+        <v>3467</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>14359</v>
+        <v>13658</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3224406166041188</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1576924594660652</v>
+        <v>0.1376023794159191</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5699555532427539</v>
+        <v>0.5421383169166017</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -1142,19 +1142,19 @@
         <v>18620</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11111</v>
+        <v>10670</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>29162</v>
+        <v>28857</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2907481910849812</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1734911321733626</v>
+        <v>0.1666152726969141</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4553568383960436</v>
+        <v>0.4505887874986337</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>22873</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15271</v>
+        <v>14793</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30012</v>
+        <v>29633</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5887595614573087</v>
+        <v>0.5887595614573089</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3930846759639645</v>
+        <v>0.3807888534428646</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7725400928626606</v>
+        <v>0.7627620071175362</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1192,19 +1192,19 @@
         <v>22234</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18697</v>
+        <v>18633</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24181</v>
+        <v>24133</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8825348565568001</v>
+        <v>0.8825348565567999</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.742141738744441</v>
+        <v>0.7396086756500944</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9598145385194876</v>
+        <v>0.9579282957221291</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -1213,19 +1213,19 @@
         <v>45106</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35539</v>
+        <v>36002</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52119</v>
+        <v>52980</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7043263569178458</v>
+        <v>0.7043263569178457</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5549312275589385</v>
+        <v>0.5621686004946173</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8138268264952321</v>
+        <v>0.8272650750555685</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>10420</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4697</v>
+        <v>4562</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18585</v>
+        <v>17698</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2682292385776044</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1209162979944562</v>
+        <v>0.1174200529239301</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4783916815628756</v>
+        <v>0.4555622222444012</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1263,19 +1263,19 @@
         <v>3673</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>646</v>
+        <v>704</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9752</v>
+        <v>9322</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1457756039785181</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02563975738986661</v>
+        <v>0.02792829124812983</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3871024943558802</v>
+        <v>0.370009998113361</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -1284,19 +1284,19 @@
         <v>14093</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7776</v>
+        <v>7329</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>24621</v>
+        <v>23900</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2200578151149224</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1214182195792675</v>
+        <v>0.1144342076278046</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3844570191157593</v>
+        <v>0.3731957710983826</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>23563</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15805</v>
+        <v>16357</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30612</v>
+        <v>30715</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6065227084465087</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4068366045822295</v>
+        <v>0.4210329270165175</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7879849003519773</v>
+        <v>0.7906353876357403</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -1334,19 +1334,19 @@
         <v>10876</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6228</v>
+        <v>6700</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16138</v>
+        <v>16060</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.4317189208121511</v>
+        <v>0.431718920812151</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2472133521709534</v>
+        <v>0.2659344744342195</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6405619752954502</v>
+        <v>0.6374653027424818</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>31</v>
@@ -1355,19 +1355,19 @@
         <v>34439</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>26003</v>
+        <v>25507</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>43609</v>
+        <v>43452</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5377575198542365</v>
+        <v>0.5377575198542363</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4060274081508934</v>
+        <v>0.3982932647566849</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6809399015474994</v>
+        <v>0.6784896416805257</v>
       </c>
     </row>
     <row r="13">
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9091</v>
+        <v>8317</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1214640203721375</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3608484852178305</v>
+        <v>0.3301220047169864</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9541</v>
+        <v>9889</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04778212406665244</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1489861178755143</v>
+        <v>0.1544194527463145</v>
       </c>
     </row>
     <row r="14">
@@ -1451,19 +1451,19 @@
         <v>4599</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1564</v>
+        <v>1309</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9537</v>
+        <v>9342</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1525930612602841</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05189356990090534</v>
+        <v>0.04344711576267624</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3164771596108679</v>
+        <v>0.31001096945902</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4565</v>
+        <v>4251</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1696963775459917</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7305996873382501</v>
+        <v>0.6804202922174357</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -1493,19 +1493,19 @@
         <v>5659</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2162</v>
+        <v>2098</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10886</v>
+        <v>11602</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1555301811866091</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05942059456501904</v>
+        <v>0.05765304507612395</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2992015137357542</v>
+        <v>0.3188693199153309</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>13497</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7437</v>
+        <v>7338</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20147</v>
+        <v>19433</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.4478636230053744</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2467890052917286</v>
+        <v>0.2435115504582178</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6685277107140775</v>
+        <v>0.6448569638351511</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -1543,7 +1543,7 @@
         <v>4621</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1613</v>
+        <v>1535</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>6248</v>
@@ -1552,7 +1552,7 @@
         <v>0.7395851305660168</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2580912792677264</v>
+        <v>0.2457493981940312</v>
       </c>
       <c r="P15" s="6" t="n">
         <v>1</v>
@@ -1564,19 +1564,19 @@
         <v>18118</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>11147</v>
+        <v>11782</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>24350</v>
+        <v>25023</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.4979604018101922</v>
+        <v>0.4979604018101923</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.30636102636934</v>
+        <v>0.3238319025547776</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.6692543658527055</v>
+        <v>0.6877477436022964</v>
       </c>
     </row>
     <row r="16">
@@ -1593,19 +1593,19 @@
         <v>4357</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1286</v>
+        <v>1303</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10665</v>
+        <v>11164</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1445796699319569</v>
+        <v>0.1445796699319568</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04266180526704391</v>
+        <v>0.0432400914934588</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3538815780375605</v>
+        <v>0.3704566182329019</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1627,19 +1627,19 @@
         <v>4357</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1287</v>
+        <v>1238</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10925</v>
+        <v>11242</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1197512786185424</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03537176324906594</v>
+        <v>0.03401682342444799</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3002601773868899</v>
+        <v>0.3089896587666545</v>
       </c>
     </row>
     <row r="17">
@@ -1656,19 +1656,19 @@
         <v>18857</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12576</v>
+        <v>12056</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24621</v>
+        <v>24444</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6257151649242736</v>
+        <v>0.6257151649242735</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4173053930545041</v>
+        <v>0.400054135946027</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8170027164988974</v>
+        <v>0.8111259266476504</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1677,7 +1677,7 @@
         <v>2964</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>6248</v>
@@ -1686,7 +1686,7 @@
         <v>0.4743632938938574</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08414431930141768</v>
+        <v>0.09089893444540616</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1698,19 +1698,19 @@
         <v>21820</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15192</v>
+        <v>14736</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>27959</v>
+        <v>27970</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5997237964163142</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4175447869662202</v>
+        <v>0.4050244287418296</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7684426167432529</v>
+        <v>0.7687437179550199</v>
       </c>
     </row>
     <row r="18">
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4565</v>
+        <v>4251</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1696963775459917</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7305996873382501</v>
+        <v>0.6804202922174357</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5340</v>
+        <v>5604</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0291416356681661</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1467621656499085</v>
+        <v>0.1540154875247514</v>
       </c>
     </row>
     <row r="19">
@@ -1794,19 +1794,19 @@
         <v>12596</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6690</v>
+        <v>7023</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21323</v>
+        <v>21806</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2189899380804977</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1163103479448888</v>
+        <v>0.1221034496476026</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3707169396359243</v>
+        <v>0.3791222062320267</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1815,19 +1815,19 @@
         <v>3621</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>767</v>
+        <v>673</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10638</v>
+        <v>9927</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1672771953883722</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03543946079984506</v>
+        <v>0.03108047865930304</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4913912155739004</v>
+        <v>0.4585581215822675</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -1836,19 +1836,19 @@
         <v>16217</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>9346</v>
+        <v>8560</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27596</v>
+        <v>26273</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2048489452234632</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1180524091737008</v>
+        <v>0.1081206013332434</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3485806318944596</v>
+        <v>0.331866092216391</v>
       </c>
     </row>
     <row r="20">
@@ -1865,19 +1865,19 @@
         <v>41857</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34197</v>
+        <v>34541</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>48503</v>
+        <v>48019</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7277138775915923</v>
+        <v>0.7277138775915925</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5945362070067359</v>
+        <v>0.6005233972019863</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8432697902412214</v>
+        <v>0.8348461457889208</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -1886,19 +1886,19 @@
         <v>12318</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6783</v>
+        <v>7030</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16866</v>
+        <v>16827</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5690210371540841</v>
+        <v>0.5690210371540839</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3133337307338262</v>
+        <v>0.3247190613764808</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7791170248085014</v>
+        <v>0.7772818434503903</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>48</v>
@@ -1907,19 +1907,19 @@
         <v>54175</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>44805</v>
+        <v>42435</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>61870</v>
+        <v>61284</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6843188804155668</v>
+        <v>0.6843188804155669</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5659559188283151</v>
+        <v>0.5360141093727931</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7815071367907468</v>
+        <v>0.7741041843697373</v>
       </c>
     </row>
     <row r="21">
@@ -1936,19 +1936,19 @@
         <v>6369</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2279</v>
+        <v>2807</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12935</v>
+        <v>12736</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1107228128732761</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03961551001560385</v>
+        <v>0.04879553979604145</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2248925388137384</v>
+        <v>0.2214210790219858</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>10563</v>
+        <v>10667</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1419938465281547</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4879481760844139</v>
+        <v>0.492725337160694</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -1978,19 +1978,19 @@
         <v>9443</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4261</v>
+        <v>4540</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>17758</v>
+        <v>18842</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1192739637216928</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05381873571710955</v>
+        <v>0.0573447357420306</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2243153596910416</v>
+        <v>0.2380009212007567</v>
       </c>
     </row>
     <row r="22">
@@ -2007,19 +2007,19 @@
         <v>31917</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23119</v>
+        <v>23709</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40697</v>
+        <v>40433</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5549125528172708</v>
+        <v>0.5549125528172709</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4019403102083025</v>
+        <v>0.4122092502899642</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7075551034111084</v>
+        <v>0.7029558315244163</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2028,19 +2028,19 @@
         <v>6518</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2851</v>
+        <v>3047</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11601</v>
+        <v>11961</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.301085447081903</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.131700696516113</v>
+        <v>0.1407612028410988</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5359048938380027</v>
+        <v>0.5525051493079314</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>41</v>
@@ -2049,19 +2049,19 @@
         <v>38436</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28434</v>
+        <v>28132</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>48491</v>
+        <v>48013</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4855028270462927</v>
+        <v>0.4855028270462928</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3591703164589152</v>
+        <v>0.3553493529680301</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6125104167894816</v>
+        <v>0.6064787549942027</v>
       </c>
     </row>
     <row r="23">
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6410</v>
+        <v>6531</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03541275717123198</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1114503979162797</v>
+        <v>0.1135497560644878</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -2115,16 +2115,16 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7215</v>
+        <v>6804</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.02572904054479699</v>
+        <v>0.025729040544797</v>
       </c>
       <c r="V23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09113743962728971</v>
+        <v>0.08594604414633324</v>
       </c>
     </row>
     <row r="24">
@@ -2145,19 +2145,19 @@
         <v>38147</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25446</v>
+        <v>26703</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>53904</v>
+        <v>54641</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2362308275447026</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1575765604777465</v>
+        <v>0.1653606973644928</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3338082151575512</v>
+        <v>0.3383738396584019</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -2166,19 +2166,19 @@
         <v>14782</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8600</v>
+        <v>8256</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23478</v>
+        <v>23814</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2302954889663085</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1339826548733907</v>
+        <v>0.12863137435468</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3657872226734415</v>
+        <v>0.3710113888716917</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>41</v>
@@ -2187,19 +2187,19 @@
         <v>52929</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>38324</v>
+        <v>38992</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>70043</v>
+        <v>69823</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2345426558365788</v>
+        <v>0.2345426558365789</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1698232694609911</v>
+        <v>0.1727863487355024</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3103814188188403</v>
+        <v>0.3094078430650751</v>
       </c>
     </row>
     <row r="25">
@@ -2216,19 +2216,19 @@
         <v>106085</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>91857</v>
+        <v>91185</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>119574</v>
+        <v>118008</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.6569461383875637</v>
+        <v>0.6569461383875638</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5688369954773019</v>
+        <v>0.5646761471249696</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7404801971267296</v>
+        <v>0.7307816365087456</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -2237,19 +2237,19 @@
         <v>46314</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>38025</v>
+        <v>37641</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>52649</v>
+        <v>52170</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7215597749616647</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5924122426344444</v>
+        <v>0.5864346551589851</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8202489970531842</v>
+        <v>0.8127950327162022</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>138</v>
@@ -2258,19 +2258,19 @@
         <v>152399</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>136811</v>
+        <v>134958</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>168046</v>
+        <v>166921</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.6753240138503815</v>
+        <v>0.6753240138503817</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6062485960240516</v>
+        <v>0.5980394547020849</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7446589097773142</v>
+        <v>0.7396745653167198</v>
       </c>
     </row>
     <row r="26">
@@ -2287,19 +2287,19 @@
         <v>28174</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18794</v>
+        <v>18038</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>41748</v>
+        <v>40854</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1744712219838913</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.116383155171635</v>
+        <v>0.1117042471662311</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2585276312996014</v>
+        <v>0.2529928141080319</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -2308,19 +2308,19 @@
         <v>10090</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4894</v>
+        <v>4761</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18331</v>
+        <v>17769</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1571953754919922</v>
+        <v>0.1571953754919921</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07625386904821474</v>
+        <v>0.07416928853873299</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2855919027166107</v>
+        <v>0.2768327104271247</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -2329,19 +2329,19 @@
         <v>38264</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25894</v>
+        <v>25768</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>52445</v>
+        <v>52784</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1695575014106997</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1147421635213157</v>
+        <v>0.1141848791583843</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2323980087816395</v>
+        <v>0.2338994735943356</v>
       </c>
     </row>
     <row r="27">
@@ -2358,19 +2358,19 @@
         <v>87085</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>72184</v>
+        <v>73116</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>101146</v>
+        <v>101364</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.539288938615168</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4470075032857427</v>
+        <v>0.4527812067133346</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6263623911309903</v>
+        <v>0.6277109865245951</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>27</v>
@@ -2379,19 +2379,19 @@
         <v>22705</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>15665</v>
+        <v>15489</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>31064</v>
+        <v>30695</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3537340527537338</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2440492390393927</v>
+        <v>0.2413209555629142</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4839652534311091</v>
+        <v>0.4782211875867206</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>111</v>
@@ -2400,19 +2400,19 @@
         <v>109790</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>91922</v>
+        <v>92849</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>125832</v>
+        <v>126297</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4865120827579986</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4073340262968337</v>
+        <v>0.4114413595449786</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5575964036351473</v>
+        <v>0.5596571358005443</v>
       </c>
     </row>
     <row r="28">
@@ -2429,19 +2429,19 @@
         <v>3093</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>7866</v>
+        <v>8772</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01915236672268698</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.005588732106044193</v>
+        <v>0.005553815850899205</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04871288218933682</v>
+        <v>0.05432113028528174</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -2450,19 +2450,19 @@
         <v>5064</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1696</v>
+        <v>1511</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>11706</v>
+        <v>12090</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07889410418588261</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02642293420346502</v>
+        <v>0.02354418414981079</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1823764713317461</v>
+        <v>0.1883524253602137</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -2471,19 +2471,19 @@
         <v>8157</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3333</v>
+        <v>3566</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>17106</v>
+        <v>16816</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03614454158304858</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01477083633735992</v>
+        <v>0.01580313598720652</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07580308796015882</v>
+        <v>0.0745186549424373</v>
       </c>
     </row>
     <row r="29">
